--- a/data/Sample.xlsx
+++ b/data/Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/Columbia/Fall 2016/Applied Data Anaylsis/Project2/Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YaqingXie/Desktop/3-Applied Data Science/Fall2016-Proj2-grp3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="920" windowWidth="24960" windowHeight="13420" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="920" windowWidth="24600" windowHeight="13420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -56,31 +56,25 @@
     <t>P-049703</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>P-132428</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>P-149191</t>
   </si>
   <si>
     <t>P-149195</t>
   </si>
   <si>
-    <t xml:space="preserve"> M</t>
-  </si>
-  <si>
     <t>P-232907</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
 </sst>
 </file>
@@ -116,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +393,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,16 +435,16 @@
         <v>40.824710000000003</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.33333333333333331</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -457,7 +452,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-73.917500000000004</v>
@@ -466,24 +461,24 @@
         <v>40.846339999999998</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H3">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-72.023060000000001</v>
@@ -492,16 +487,16 @@
         <v>44.416550000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.79166666666666663</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -509,7 +504,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-105.00830000000001</v>
@@ -518,16 +513,16 @@
         <v>39.555729999999997</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>830</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.79166666666666663</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -535,7 +530,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-73.907629999999997</v>
@@ -544,16 +539,16 @@
         <v>40.884439999999998</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.79166666666666663</v>
       </c>
       <c r="H6">
         <v>2</v>
